--- a/Sprint Log.xlsx
+++ b/Sprint Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cd549\OneDrive - Canterbury Christ Church University\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC819F9-BD06-4A7B-9437-24ED6EA00801}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{FFC819F9-BD06-4A7B-9437-24ED6EA00801}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{DE77962E-826B-4D72-B808-73DDF07B9617}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D1336B-B5F4-478B-B08D-855F913F4C9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Issue 1</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Entering New Password For Username Overwrites Old Password</t>
+  </si>
+  <si>
+    <t>Make Login Draw From User Database.XML File</t>
+  </si>
+  <si>
+    <t>Test Database - Class Linkages</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$27)</c:f>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$15,Sheet1!$F$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -437,7 +443,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2438,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81680F1-7DB1-4575-AE06-F3221AF87DD8}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2716,7 @@
         <v>43881</v>
       </c>
       <c r="F15" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2799,83 +2805,88 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="22">
+        <v>43886</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E23" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="3" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="3" t="s">
@@ -2885,10 +2896,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="3" t="s">
@@ -2898,6 +2912,32 @@
         <v>5</v>
       </c>
       <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
